--- a/data/individual_keywords.xlsx
+++ b/data/individual_keywords.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
   <si>
     <t>I've</t>
   </si>
@@ -74,10 +80,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -87,17 +98,22 @@
       <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -120,14 +136,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -350,105 +372,167 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data/individual_keywords.xlsx
+++ b/data/individual_keywords.xlsx
@@ -389,7 +389,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -413,7 +413,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
